--- a/Code/Results/Cases/Case_2_248/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_248/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.005296079984036</v>
+        <v>1.028598544292766</v>
       </c>
       <c r="D2">
-        <v>1.020755940795168</v>
+        <v>1.032458595806573</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>1.010444168906659</v>
+        <v>1.038891713623375</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043090200177199</v>
+        <v>1.034979182921329</v>
       </c>
       <c r="J2">
-        <v>1.027319531909842</v>
+        <v>1.033749972674907</v>
       </c>
       <c r="K2">
-        <v>1.031933491720363</v>
+        <v>1.035263767413752</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.021759892484772</v>
+        <v>1.041678455416404</v>
       </c>
       <c r="N2">
-        <v>1.028778443480351</v>
+        <v>1.035218016208896</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.009088265403092</v>
+        <v>1.029392318614242</v>
       </c>
       <c r="D3">
-        <v>1.023407391280673</v>
+        <v>1.033033649030302</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.015113104956478</v>
+        <v>1.039949570567998</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04413185506375</v>
+        <v>1.035151277759758</v>
       </c>
       <c r="J3">
-        <v>1.029334204395062</v>
+        <v>1.034185221895733</v>
       </c>
       <c r="K3">
-        <v>1.033749280348262</v>
+        <v>1.035648222598183</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.025556194859291</v>
+        <v>1.04254576501394</v>
       </c>
       <c r="N3">
-        <v>1.030795977031587</v>
+        <v>1.035653883533528</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.01149509406402</v>
+        <v>1.02990634035713</v>
       </c>
       <c r="D4">
-        <v>1.025092997769459</v>
+        <v>1.03340607743262</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.018078304572438</v>
+        <v>1.04063489982492</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044784371448141</v>
+        <v>1.035261662921154</v>
       </c>
       <c r="J4">
-        <v>1.030609255824955</v>
+        <v>1.034466583496681</v>
       </c>
       <c r="K4">
-        <v>1.034897719125795</v>
+        <v>1.035896619642251</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.027963328863899</v>
+        <v>1.043107199568469</v>
       </c>
       <c r="N4">
-        <v>1.03207283918076</v>
+        <v>1.035935644700222</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012496027730769</v>
+        <v>1.030122528573879</v>
       </c>
       <c r="D5">
-        <v>1.025794623774567</v>
+        <v>1.033562723876627</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.019311957578511</v>
+        <v>1.040923208785074</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045053644093736</v>
+        <v>1.035307835623805</v>
       </c>
       <c r="J5">
-        <v>1.031138624168543</v>
+        <v>1.034584801329908</v>
       </c>
       <c r="K5">
-        <v>1.035374334226149</v>
+        <v>1.036000955854026</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.028963859620512</v>
+        <v>1.043343280099048</v>
       </c>
       <c r="N5">
-        <v>1.032602959288115</v>
+        <v>1.036054030416332</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.012663459695546</v>
+        <v>1.03015883296495</v>
       </c>
       <c r="D6">
-        <v>1.025912024674191</v>
+        <v>1.033589030004991</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.019518349120152</v>
+        <v>1.040971628624842</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045098563200096</v>
+        <v>1.035315574530521</v>
       </c>
       <c r="J6">
-        <v>1.03122712172795</v>
+        <v>1.034604646689321</v>
       </c>
       <c r="K6">
-        <v>1.035454001475774</v>
+        <v>1.036018469060522</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.029131193708263</v>
+        <v>1.0433829221651</v>
       </c>
       <c r="N6">
-        <v>1.032691582524208</v>
+        <v>1.036073903958432</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.011508510957497</v>
+        <v>1.029909228709228</v>
       </c>
       <c r="D7">
-        <v>1.025102400196707</v>
+        <v>1.03340817024737</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.018094838853407</v>
+        <v>1.040638751452307</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044787989173569</v>
+        <v>1.035262280800193</v>
       </c>
       <c r="J7">
-        <v>1.030616355222441</v>
+        <v>1.034468163392095</v>
       </c>
       <c r="K7">
-        <v>1.034904111796065</v>
+        <v>1.0358980141424</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.027976742418872</v>
+        <v>1.043110353879269</v>
       </c>
       <c r="N7">
-        <v>1.032079948660205</v>
+        <v>1.035937226839269</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.00658760620954</v>
+        <v>1.028866721010128</v>
       </c>
       <c r="D8">
-        <v>1.021658353986809</v>
+        <v>1.032652868350585</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>1.012033924695767</v>
+        <v>1.039249049899418</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043446748374597</v>
+        <v>1.035037544020466</v>
       </c>
       <c r="J8">
-        <v>1.028006426632621</v>
+        <v>1.033897123238612</v>
       </c>
       <c r="K8">
-        <v>1.03255272822605</v>
+        <v>1.035393772066699</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.023053319261902</v>
+        <v>1.041971519123387</v>
       </c>
       <c r="N8">
-        <v>1.029466313672425</v>
+        <v>1.035365375743268</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9975401932795888</v>
+        <v>1.027032793171095</v>
       </c>
       <c r="D9">
-        <v>1.015350161429109</v>
+        <v>1.031324531061299</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.00090333721573</v>
+        <v>1.036806580813004</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04091373706003</v>
+        <v>1.034634113117263</v>
       </c>
       <c r="J9">
-        <v>1.023180113687105</v>
+        <v>1.032888827199471</v>
       </c>
       <c r="K9">
-        <v>1.028199007160719</v>
+        <v>1.034502436635573</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.013981775385998</v>
+        <v>1.039966529663436</v>
       </c>
       <c r="N9">
-        <v>1.02463314680894</v>
+        <v>1.034355647808099</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9912314031717402</v>
+        <v>1.025812349815972</v>
       </c>
       <c r="D10">
-        <v>1.010970315535478</v>
+        <v>1.030440815796689</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9931470601034059</v>
+        <v>1.035182603204893</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039103816124859</v>
+        <v>1.034360208178974</v>
       </c>
       <c r="J10">
-        <v>1.01979729151804</v>
+        <v>1.032215313422033</v>
       </c>
       <c r="K10">
-        <v>1.025144282789981</v>
+        <v>1.033906394978934</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.007641158769369</v>
+        <v>1.038631124786036</v>
       </c>
       <c r="N10">
-        <v>1.02124552064438</v>
+        <v>1.033681177563843</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9884280587225285</v>
+        <v>1.025284418769294</v>
       </c>
       <c r="D11">
-        <v>1.009029211145517</v>
+        <v>1.030058614273536</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9897008779064892</v>
+        <v>1.03448044281799</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0382896003977</v>
+        <v>1.034240437342194</v>
       </c>
       <c r="J11">
-        <v>1.018290295672362</v>
+        <v>1.03192337529178</v>
       </c>
       <c r="K11">
-        <v>1.023782835211478</v>
+        <v>1.033647884190975</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.004819669773961</v>
+        <v>1.038053188781011</v>
       </c>
       <c r="N11">
-        <v>1.019736384691746</v>
+        <v>1.03338882484796</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9873754831519108</v>
+        <v>1.025088402615006</v>
       </c>
       <c r="D12">
-        <v>1.0083012039849</v>
+        <v>1.029916717271119</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9884069115773716</v>
+        <v>1.034219785208494</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037982421366059</v>
+        <v>1.034195774183815</v>
       </c>
       <c r="J12">
-        <v>1.01772391476595</v>
+        <v>1.031814892098902</v>
       </c>
       <c r="K12">
-        <v>1.023271075559774</v>
+        <v>1.033551799589083</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.00375963900384</v>
+        <v>1.037838564026577</v>
       </c>
       <c r="N12">
-        <v>1.019169199459482</v>
+        <v>1.033280187596505</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9876017839346509</v>
+        <v>1.025130445059065</v>
       </c>
       <c r="D13">
-        <v>1.008457685423507</v>
+        <v>1.029947151481872</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9886851130628029</v>
+        <v>1.034275690076039</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038048529620432</v>
+        <v>1.034205362489982</v>
       </c>
       <c r="J13">
-        <v>1.017845709348844</v>
+        <v>1.031838164103418</v>
       </c>
       <c r="K13">
-        <v>1.023381127847224</v>
+        <v>1.033572412859704</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.00398757235776</v>
+        <v>1.03788459965077</v>
       </c>
       <c r="N13">
-        <v>1.019291167004654</v>
+        <v>1.033303492649937</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9883412859776118</v>
+        <v>1.025268214353125</v>
       </c>
       <c r="D14">
-        <v>1.008969178294415</v>
+        <v>1.030046883592752</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9895942062170108</v>
+        <v>1.034458893590763</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038264306599099</v>
+        <v>1.034236749036941</v>
       </c>
       <c r="J14">
-        <v>1.018243615049649</v>
+        <v>1.031914408936436</v>
       </c>
       <c r="K14">
-        <v>1.023740657999959</v>
+        <v>1.033639943070365</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.00473229574371</v>
+        <v>1.038035446880046</v>
       </c>
       <c r="N14">
-        <v>1.019689637777195</v>
+        <v>1.033379845759362</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9887954052575431</v>
+        <v>1.025353109331812</v>
       </c>
       <c r="D15">
-        <v>1.009283390001993</v>
+        <v>1.030108341116363</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9901524638369028</v>
+        <v>1.03457179202352</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038396620469384</v>
+        <v>1.034256064160683</v>
       </c>
       <c r="J15">
-        <v>1.01848789277755</v>
+        <v>1.031961380045511</v>
       </c>
       <c r="K15">
-        <v>1.023961366343173</v>
+        <v>1.033681542452843</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.005189535360598</v>
+        <v>1.038128395012544</v>
       </c>
       <c r="N15">
-        <v>1.019934262407488</v>
+        <v>1.033426883572801</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9914158987988213</v>
+        <v>1.025847398131223</v>
       </c>
       <c r="D16">
-        <v>1.011098175869062</v>
+        <v>1.03046619093426</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9933738636715076</v>
+        <v>1.035229225108675</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039157196783722</v>
+        <v>1.034368132411193</v>
       </c>
       <c r="J16">
-        <v>1.019896393547946</v>
+        <v>1.032234682114963</v>
       </c>
       <c r="K16">
-        <v>1.025233801540103</v>
+        <v>1.03392354271103</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.007826761672778</v>
+        <v>1.038669486955837</v>
       </c>
       <c r="N16">
-        <v>1.021344763410536</v>
+        <v>1.033700573762539</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.993040131518619</v>
+        <v>1.02615759509587</v>
       </c>
       <c r="D17">
-        <v>1.012224400101568</v>
+        <v>1.03069078308725</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9953705923537692</v>
+        <v>1.03564189259892</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039626008873775</v>
+        <v>1.034438117508443</v>
       </c>
       <c r="J17">
-        <v>1.020768419772894</v>
+        <v>1.032406037098585</v>
       </c>
       <c r="K17">
-        <v>1.026021433291313</v>
+        <v>1.034075231147703</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.009460281682524</v>
+        <v>1.039008981402812</v>
       </c>
       <c r="N17">
-        <v>1.022218028012745</v>
+        <v>1.033872172089892</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9939806486043041</v>
+        <v>1.026338578677505</v>
       </c>
       <c r="D18">
-        <v>1.01287702492497</v>
+        <v>1.030821827492883</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9965268440643754</v>
+        <v>1.03588269413905</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039896526760861</v>
+        <v>1.034478825879774</v>
       </c>
       <c r="J18">
-        <v>1.021273004501065</v>
+        <v>1.032505956332364</v>
       </c>
       <c r="K18">
-        <v>1.026477125389135</v>
+        <v>1.034163667774117</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.010405799227299</v>
+        <v>1.039207031957915</v>
       </c>
       <c r="N18">
-        <v>1.022723329309107</v>
+        <v>1.033972233220444</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9943001908992987</v>
+        <v>1.026400297997477</v>
       </c>
       <c r="D19">
-        <v>1.013098835325179</v>
+        <v>1.030866517595734</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.9969196915386448</v>
+        <v>1.035964818104292</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039988273683877</v>
+        <v>1.034492687240388</v>
       </c>
       <c r="J19">
-        <v>1.021444375354421</v>
+        <v>1.032540021219765</v>
       </c>
       <c r="K19">
-        <v>1.026631880606269</v>
+        <v>1.03419381544799</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.010726977602983</v>
+        <v>1.039274567003508</v>
       </c>
       <c r="N19">
-        <v>1.022894943528732</v>
+        <v>1.034006346483893</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9928665810933702</v>
+        <v>1.026124308617631</v>
       </c>
       <c r="D20">
-        <v>1.012104011946692</v>
+        <v>1.030666681953179</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9951572368936856</v>
+        <v>1.035597606976767</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039576014192974</v>
+        <v>1.034430620428171</v>
       </c>
       <c r="J20">
-        <v>1.020675280798909</v>
+        <v>1.03238765534637</v>
       </c>
       <c r="K20">
-        <v>1.025937314329184</v>
+        <v>1.034058960613446</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.009285778330553</v>
+        <v>1.038972553836225</v>
       </c>
       <c r="N20">
-        <v>1.022124756770734</v>
+        <v>1.033853764233481</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9881238371217912</v>
+        <v>1.025227642483616</v>
       </c>
       <c r="D21">
-        <v>1.008818751925072</v>
+        <v>1.030017513036047</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9893268907875485</v>
+        <v>1.034404940407837</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038200897922021</v>
+        <v>1.034227511305673</v>
       </c>
       <c r="J21">
-        <v>1.018126626646274</v>
+        <v>1.03189195795008</v>
       </c>
       <c r="K21">
-        <v>1.023634954535659</v>
+        <v>1.033620058814752</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.004513329595154</v>
+        <v>1.037991024842624</v>
       </c>
       <c r="N21">
-        <v>1.019572483236868</v>
+        <v>1.033357362890031</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9850762846764197</v>
+        <v>1.024664341933893</v>
       </c>
       <c r="D22">
-        <v>1.006712551452298</v>
+        <v>1.029609758597521</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9855802963576407</v>
+        <v>1.033655966733966</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037308779204464</v>
+        <v>1.034098796692173</v>
       </c>
       <c r="J22">
-        <v>1.016485762561892</v>
+        <v>1.031580037106666</v>
       </c>
       <c r="K22">
-        <v>1.022152194014563</v>
+        <v>1.033343744563662</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.001442926743797</v>
+        <v>1.037374167558581</v>
       </c>
       <c r="N22">
-        <v>1.017929288937277</v>
+        <v>1.033044999083242</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9866982547406878</v>
+        <v>1.024962913262929</v>
       </c>
       <c r="D23">
-        <v>1.007833041954007</v>
+        <v>1.029825878129166</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9875743552414705</v>
+        <v>1.034052925947253</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037784373621659</v>
+        <v>1.034167126464584</v>
       </c>
       <c r="J23">
-        <v>1.017359353859149</v>
+        <v>1.031745416189164</v>
       </c>
       <c r="K23">
-        <v>1.022941651269925</v>
+        <v>1.033490257684487</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.003077427475666</v>
+        <v>1.037701149490821</v>
       </c>
       <c r="N23">
-        <v>1.018804120834377</v>
+        <v>1.033210613023006</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9929450222532226</v>
+        <v>1.026139349187116</v>
       </c>
       <c r="D24">
-        <v>1.012158423385805</v>
+        <v>1.03067757208372</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9952536689673803</v>
+        <v>1.035617617435531</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039598613687256</v>
+        <v>1.034434008384485</v>
       </c>
       <c r="J24">
-        <v>1.020717378798654</v>
+        <v>1.032395961359392</v>
       </c>
       <c r="K24">
-        <v>1.025975335546613</v>
+        <v>1.034066312693311</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.009364651360031</v>
+        <v>1.038989013795416</v>
       </c>
       <c r="N24">
-        <v>1.022166914554468</v>
+        <v>1.033862082041994</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9999261540741009</v>
+        <v>1.0275065305519</v>
       </c>
       <c r="D25">
-        <v>1.017010682829508</v>
+        <v>1.031667620135031</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.003837517572792</v>
+        <v>1.037437257736437</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041589394363193</v>
+        <v>1.034739284898112</v>
       </c>
       <c r="J25">
-        <v>1.024456003684726</v>
+        <v>1.033149732468053</v>
       </c>
       <c r="K25">
-        <v>1.029350546699164</v>
+        <v>1.034733193198442</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.016376551690388</v>
+        <v>1.040484650458637</v>
       </c>
       <c r="N25">
-        <v>1.025910848716705</v>
+        <v>1.034616923592089</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_248/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_248/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028598544292766</v>
+        <v>1.005296079984036</v>
       </c>
       <c r="D2">
-        <v>1.032458595806573</v>
+        <v>1.020755940795168</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.038891713623375</v>
+        <v>1.010444168906659</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034979182921329</v>
+        <v>1.043090200177199</v>
       </c>
       <c r="J2">
-        <v>1.033749972674907</v>
+        <v>1.027319531909841</v>
       </c>
       <c r="K2">
-        <v>1.035263767413752</v>
+        <v>1.031933491720363</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.041678455416404</v>
+        <v>1.021759892484771</v>
       </c>
       <c r="N2">
-        <v>1.035218016208896</v>
+        <v>1.028778443480351</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029392318614242</v>
+        <v>1.009088265403091</v>
       </c>
       <c r="D3">
-        <v>1.033033649030302</v>
+        <v>1.023407391280672</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.039949570567998</v>
+        <v>1.015113104956477</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035151277759758</v>
+        <v>1.04413185506375</v>
       </c>
       <c r="J3">
-        <v>1.034185221895733</v>
+        <v>1.029334204395062</v>
       </c>
       <c r="K3">
-        <v>1.035648222598183</v>
+        <v>1.033749280348262</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.04254576501394</v>
+        <v>1.02555619485929</v>
       </c>
       <c r="N3">
-        <v>1.035653883533528</v>
+        <v>1.030795977031586</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02990634035713</v>
+        <v>1.011495094064019</v>
       </c>
       <c r="D4">
-        <v>1.03340607743262</v>
+        <v>1.025092997769458</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.04063489982492</v>
+        <v>1.018078304572437</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035261662921154</v>
+        <v>1.044784371448141</v>
       </c>
       <c r="J4">
-        <v>1.034466583496681</v>
+        <v>1.030609255824954</v>
       </c>
       <c r="K4">
-        <v>1.035896619642251</v>
+        <v>1.034897719125794</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.043107199568469</v>
+        <v>1.027963328863898</v>
       </c>
       <c r="N4">
-        <v>1.035935644700222</v>
+        <v>1.032072839180759</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030122528573879</v>
+        <v>1.012496027730768</v>
       </c>
       <c r="D5">
-        <v>1.033562723876627</v>
+        <v>1.025794623774567</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.040923208785074</v>
+        <v>1.019311957578511</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035307835623805</v>
+        <v>1.045053644093736</v>
       </c>
       <c r="J5">
-        <v>1.034584801329908</v>
+        <v>1.031138624168543</v>
       </c>
       <c r="K5">
-        <v>1.036000955854026</v>
+        <v>1.035374334226149</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.043343280099048</v>
+        <v>1.028963859620512</v>
       </c>
       <c r="N5">
-        <v>1.036054030416332</v>
+        <v>1.032602959288115</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03015883296495</v>
+        <v>1.012663459695545</v>
       </c>
       <c r="D6">
-        <v>1.033589030004991</v>
+        <v>1.02591202467419</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.040971628624842</v>
+        <v>1.019518349120152</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035315574530521</v>
+        <v>1.045098563200096</v>
       </c>
       <c r="J6">
-        <v>1.034604646689321</v>
+        <v>1.03122712172795</v>
       </c>
       <c r="K6">
-        <v>1.036018469060522</v>
+        <v>1.035454001475774</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.0433829221651</v>
+        <v>1.029131193708262</v>
       </c>
       <c r="N6">
-        <v>1.036073903958432</v>
+        <v>1.032691582524207</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029909228709228</v>
+        <v>1.011508510957497</v>
       </c>
       <c r="D7">
-        <v>1.03340817024737</v>
+        <v>1.025102400196707</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.040638751452307</v>
+        <v>1.018094838853407</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035262280800193</v>
+        <v>1.044787989173569</v>
       </c>
       <c r="J7">
-        <v>1.034468163392095</v>
+        <v>1.03061635522244</v>
       </c>
       <c r="K7">
-        <v>1.0358980141424</v>
+        <v>1.034904111796065</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.043110353879269</v>
+        <v>1.027976742418872</v>
       </c>
       <c r="N7">
-        <v>1.035937226839269</v>
+        <v>1.032079948660204</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028866721010128</v>
+        <v>1.006587606209539</v>
       </c>
       <c r="D8">
-        <v>1.032652868350585</v>
+        <v>1.021658353986809</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.039249049899418</v>
+        <v>1.012033924695766</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035037544020466</v>
+        <v>1.043446748374597</v>
       </c>
       <c r="J8">
-        <v>1.033897123238612</v>
+        <v>1.028006426632621</v>
       </c>
       <c r="K8">
-        <v>1.035393772066699</v>
+        <v>1.03255272822605</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.041971519123387</v>
+        <v>1.023053319261902</v>
       </c>
       <c r="N8">
-        <v>1.035365375743268</v>
+        <v>1.029466313672425</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027032793171095</v>
+        <v>0.9975401932795889</v>
       </c>
       <c r="D9">
-        <v>1.031324531061299</v>
+        <v>1.015350161429109</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.036806580813004</v>
+        <v>1.000903337215729</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034634113117263</v>
+        <v>1.04091373706003</v>
       </c>
       <c r="J9">
-        <v>1.032888827199471</v>
+        <v>1.023180113687104</v>
       </c>
       <c r="K9">
-        <v>1.034502436635573</v>
+        <v>1.028199007160719</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.039966529663436</v>
+        <v>1.013981775385998</v>
       </c>
       <c r="N9">
-        <v>1.034355647808099</v>
+        <v>1.02463314680894</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025812349815972</v>
+        <v>0.9912314031717402</v>
       </c>
       <c r="D10">
-        <v>1.030440815796689</v>
+        <v>1.010970315535479</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.035182603204893</v>
+        <v>0.993147060103406</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034360208178974</v>
+        <v>1.039103816124859</v>
       </c>
       <c r="J10">
-        <v>1.032215313422033</v>
+        <v>1.01979729151804</v>
       </c>
       <c r="K10">
-        <v>1.033906394978934</v>
+        <v>1.025144282789981</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.038631124786036</v>
+        <v>1.007641158769369</v>
       </c>
       <c r="N10">
-        <v>1.033681177563843</v>
+        <v>1.02124552064438</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025284418769294</v>
+        <v>0.9884280587225276</v>
       </c>
       <c r="D11">
-        <v>1.030058614273536</v>
+        <v>1.009029211145516</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.03448044281799</v>
+        <v>0.9897008779064882</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034240437342194</v>
+        <v>1.0382896003977</v>
       </c>
       <c r="J11">
-        <v>1.03192337529178</v>
+        <v>1.018290295672361</v>
       </c>
       <c r="K11">
-        <v>1.033647884190975</v>
+        <v>1.023782835211477</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.038053188781011</v>
+        <v>1.00481966977396</v>
       </c>
       <c r="N11">
-        <v>1.03338882484796</v>
+        <v>1.019736384691745</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025088402615006</v>
+        <v>0.9873754831519113</v>
       </c>
       <c r="D12">
-        <v>1.029916717271119</v>
+        <v>1.008301203984901</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.034219785208494</v>
+        <v>0.9884069115773719</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034195774183815</v>
+        <v>1.03798242136606</v>
       </c>
       <c r="J12">
-        <v>1.031814892098902</v>
+        <v>1.01772391476595</v>
       </c>
       <c r="K12">
-        <v>1.033551799589083</v>
+        <v>1.023271075559774</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.037838564026577</v>
+        <v>1.00375963900384</v>
       </c>
       <c r="N12">
-        <v>1.033280187596505</v>
+        <v>1.019169199459483</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025130445059065</v>
+        <v>0.9876017839346513</v>
       </c>
       <c r="D13">
-        <v>1.029947151481872</v>
+        <v>1.008457685423507</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.034275690076039</v>
+        <v>0.988685113062803</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034205362489982</v>
+        <v>1.038048529620432</v>
       </c>
       <c r="J13">
-        <v>1.031838164103418</v>
+        <v>1.017845709348844</v>
       </c>
       <c r="K13">
-        <v>1.033572412859704</v>
+        <v>1.023381127847224</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.03788459965077</v>
+        <v>1.00398757235776</v>
       </c>
       <c r="N13">
-        <v>1.033303492649937</v>
+        <v>1.019291167004654</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025268214353125</v>
+        <v>0.9883412859776115</v>
       </c>
       <c r="D14">
-        <v>1.030046883592752</v>
+        <v>1.008969178294414</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.034458893590763</v>
+        <v>0.9895942062170102</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034236749036941</v>
+        <v>1.038264306599099</v>
       </c>
       <c r="J14">
-        <v>1.031914408936436</v>
+        <v>1.018243615049649</v>
       </c>
       <c r="K14">
-        <v>1.033639943070365</v>
+        <v>1.023740657999958</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.038035446880046</v>
+        <v>1.00473229574371</v>
       </c>
       <c r="N14">
-        <v>1.033379845759362</v>
+        <v>1.019689637777194</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025353109331812</v>
+        <v>0.9887954052575429</v>
       </c>
       <c r="D15">
-        <v>1.030108341116363</v>
+        <v>1.009283390001993</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.03457179202352</v>
+        <v>0.9901524638369031</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034256064160683</v>
+        <v>1.038396620469384</v>
       </c>
       <c r="J15">
-        <v>1.031961380045511</v>
+        <v>1.01848789277755</v>
       </c>
       <c r="K15">
-        <v>1.033681542452843</v>
+        <v>1.023961366343173</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.038128395012544</v>
+        <v>1.005189535360598</v>
       </c>
       <c r="N15">
-        <v>1.033426883572801</v>
+        <v>1.019934262407488</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025847398131223</v>
+        <v>0.9914158987988213</v>
       </c>
       <c r="D16">
-        <v>1.03046619093426</v>
+        <v>1.011098175869062</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.035229225108675</v>
+        <v>0.9933738636715076</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034368132411193</v>
+        <v>1.039157196783722</v>
       </c>
       <c r="J16">
-        <v>1.032234682114963</v>
+        <v>1.019896393547946</v>
       </c>
       <c r="K16">
-        <v>1.03392354271103</v>
+        <v>1.025233801540103</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.038669486955837</v>
+        <v>1.007826761672778</v>
       </c>
       <c r="N16">
-        <v>1.033700573762539</v>
+        <v>1.021344763410536</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02615759509587</v>
+        <v>0.9930401315186194</v>
       </c>
       <c r="D17">
-        <v>1.03069078308725</v>
+        <v>1.012224400101569</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.03564189259892</v>
+        <v>0.9953705923537691</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034438117508443</v>
+        <v>1.039626008873775</v>
       </c>
       <c r="J17">
-        <v>1.032406037098585</v>
+        <v>1.020768419772894</v>
       </c>
       <c r="K17">
-        <v>1.034075231147703</v>
+        <v>1.026021433291314</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.039008981402812</v>
+        <v>1.009460281682524</v>
       </c>
       <c r="N17">
-        <v>1.033872172089892</v>
+        <v>1.022218028012746</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026338578677505</v>
+        <v>0.9939806486043044</v>
       </c>
       <c r="D18">
-        <v>1.030821827492883</v>
+        <v>1.01287702492497</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.03588269413905</v>
+        <v>0.9965268440643763</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034478825879774</v>
+        <v>1.039896526760862</v>
       </c>
       <c r="J18">
-        <v>1.032505956332364</v>
+        <v>1.021273004501065</v>
       </c>
       <c r="K18">
-        <v>1.034163667774117</v>
+        <v>1.026477125389136</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.039207031957915</v>
+        <v>1.010405799227299</v>
       </c>
       <c r="N18">
-        <v>1.033972233220444</v>
+        <v>1.022723329309107</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026400297997477</v>
+        <v>0.9943001908992984</v>
       </c>
       <c r="D19">
-        <v>1.030866517595734</v>
+        <v>1.013098835325179</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.035964818104292</v>
+        <v>0.9969196915386445</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034492687240388</v>
+        <v>1.039988273683877</v>
       </c>
       <c r="J19">
-        <v>1.032540021219765</v>
+        <v>1.021444375354421</v>
       </c>
       <c r="K19">
-        <v>1.03419381544799</v>
+        <v>1.026631880606269</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.039274567003508</v>
+        <v>1.010726977602982</v>
       </c>
       <c r="N19">
-        <v>1.034006346483893</v>
+        <v>1.022894943528732</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026124308617631</v>
+        <v>0.9928665810933694</v>
       </c>
       <c r="D20">
-        <v>1.030666681953179</v>
+        <v>1.012104011946692</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.035597606976767</v>
+        <v>0.995157236893685</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034430620428171</v>
+        <v>1.039576014192974</v>
       </c>
       <c r="J20">
-        <v>1.03238765534637</v>
+        <v>1.020675280798908</v>
       </c>
       <c r="K20">
-        <v>1.034058960613446</v>
+        <v>1.025937314329183</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.038972553836225</v>
+        <v>1.009285778330552</v>
       </c>
       <c r="N20">
-        <v>1.033853764233481</v>
+        <v>1.022124756770733</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025227642483616</v>
+        <v>0.9881238371217906</v>
       </c>
       <c r="D21">
-        <v>1.030017513036047</v>
+        <v>1.008818751925071</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.034404940407837</v>
+        <v>0.9893268907875478</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034227511305673</v>
+        <v>1.038200897922021</v>
       </c>
       <c r="J21">
-        <v>1.03189195795008</v>
+        <v>1.018126626646274</v>
       </c>
       <c r="K21">
-        <v>1.033620058814752</v>
+        <v>1.023634954535658</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.037991024842624</v>
+        <v>1.004513329595153</v>
       </c>
       <c r="N21">
-        <v>1.033357362890031</v>
+        <v>1.019572483236867</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024664341933893</v>
+        <v>0.9850762846764203</v>
       </c>
       <c r="D22">
-        <v>1.029609758597521</v>
+        <v>1.006712551452298</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.033655966733966</v>
+        <v>0.9855802963576413</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034098796692173</v>
+        <v>1.037308779204464</v>
       </c>
       <c r="J22">
-        <v>1.031580037106666</v>
+        <v>1.016485762561893</v>
       </c>
       <c r="K22">
-        <v>1.033343744563662</v>
+        <v>1.022152194014564</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.037374167558581</v>
+        <v>1.001442926743797</v>
       </c>
       <c r="N22">
-        <v>1.033044999083242</v>
+        <v>1.017929288937278</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024962913262929</v>
+        <v>0.986698254740687</v>
       </c>
       <c r="D23">
-        <v>1.029825878129166</v>
+        <v>1.007833041954006</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.034052925947253</v>
+        <v>0.9875743552414697</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034167126464584</v>
+        <v>1.037784373621659</v>
       </c>
       <c r="J23">
-        <v>1.031745416189164</v>
+        <v>1.017359353859148</v>
       </c>
       <c r="K23">
-        <v>1.033490257684487</v>
+        <v>1.022941651269925</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.037701149490821</v>
+        <v>1.003077427475665</v>
       </c>
       <c r="N23">
-        <v>1.033210613023006</v>
+        <v>1.018804120834376</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026139349187116</v>
+        <v>0.9929450222532221</v>
       </c>
       <c r="D24">
-        <v>1.03067757208372</v>
+        <v>1.012158423385805</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.035617617435531</v>
+        <v>0.99525366896738</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034434008384485</v>
+        <v>1.039598613687256</v>
       </c>
       <c r="J24">
-        <v>1.032395961359392</v>
+        <v>1.020717378798654</v>
       </c>
       <c r="K24">
-        <v>1.034066312693311</v>
+        <v>1.025975335546613</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.038989013795416</v>
+        <v>1.00936465136003</v>
       </c>
       <c r="N24">
-        <v>1.033862082041994</v>
+        <v>1.022166914554467</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.0275065305519</v>
+        <v>0.9999261540741006</v>
       </c>
       <c r="D25">
-        <v>1.031667620135031</v>
+        <v>1.017010682829507</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.037437257736437</v>
+        <v>1.003837517572792</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034739284898112</v>
+        <v>1.041589394363192</v>
       </c>
       <c r="J25">
-        <v>1.033149732468053</v>
+        <v>1.024456003684726</v>
       </c>
       <c r="K25">
-        <v>1.034733193198442</v>
+        <v>1.029350546699164</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.040484650458637</v>
+        <v>1.016376551690388</v>
       </c>
       <c r="N25">
-        <v>1.034616923592089</v>
+        <v>1.025910848716704</v>
       </c>
     </row>
   </sheetData>
